--- a/output/89a92882-15ad-4da9-9afc-1d1937342c64/89a92882-15ad-4da9-9afc-1d1937342c64_notes_standard_cropped_df.xlsx
+++ b/output/89a92882-15ad-4da9-9afc-1d1937342c64/89a92882-15ad-4da9-9afc-1d1937342c64_notes_standard_cropped_df.xlsx
@@ -7,32 +7,35 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="9b316d08-5ae0-39fe-a" sheetId="1" r:id="rId1"/>
-    <sheet name="f985ef4b-2e5e-3fbe-9" sheetId="2" r:id="rId2"/>
-    <sheet name="328c7752-13d9-3808-8" sheetId="3" r:id="rId3"/>
-    <sheet name="4b16b375-a5e0-36e0-9" sheetId="4" r:id="rId4"/>
-    <sheet name="21e918f8-5d24-3b2f-8" sheetId="5" r:id="rId5"/>
-    <sheet name="5833a5d1-c09c-3154-8" sheetId="6" r:id="rId6"/>
-    <sheet name="7508670f-8802-3425-8" sheetId="7" r:id="rId7"/>
-    <sheet name="385d71fd-e98a-3fc9-9" sheetId="8" r:id="rId8"/>
-    <sheet name="690bde78-8180-3e6b-8" sheetId="9" r:id="rId9"/>
-    <sheet name="14ab6223-1d71-31ca-8" sheetId="10" r:id="rId10"/>
-    <sheet name="a129ee86-9aee-3d8c-b" sheetId="11" r:id="rId11"/>
-    <sheet name="69680d68-0499-3b0a-b" sheetId="12" r:id="rId12"/>
-    <sheet name="e5adf9da-1ce8-3e27-a" sheetId="13" r:id="rId13"/>
-    <sheet name="f55109bd-d498-3d16-a" sheetId="14" r:id="rId14"/>
-    <sheet name="6ad081c9-6281-3b76-b" sheetId="15" r:id="rId15"/>
-    <sheet name="7fdc5704-8f0c-3783-a" sheetId="16" r:id="rId16"/>
-    <sheet name="56aa5dbe-5af6-3af8-8" sheetId="17" r:id="rId17"/>
-    <sheet name="a43afe4a-0070-3dde-a" sheetId="18" r:id="rId18"/>
-    <sheet name="959cff20-072d-31e5-8" sheetId="19" r:id="rId19"/>
+    <sheet name="7__9b316d08-5ae0-39f" sheetId="1" r:id="rId1"/>
+    <sheet name="7__f985ef4b-2e5e-3fb" sheetId="2" r:id="rId2"/>
+    <sheet name="8__328c7752-13d9-380" sheetId="3" r:id="rId3"/>
+    <sheet name="11__4b16b375-a5e0-36" sheetId="4" r:id="rId4"/>
+    <sheet name="12__21e918f8-5d24-3b" sheetId="5" r:id="rId5"/>
+    <sheet name="13__5833a5d1-c09c-31" sheetId="6" r:id="rId6"/>
+    <sheet name="13__7508670f-8802-34" sheetId="7" r:id="rId7"/>
+    <sheet name="14__385d71fd-e98a-3f" sheetId="8" r:id="rId8"/>
+    <sheet name="15__690bde78-8180-3e" sheetId="9" r:id="rId9"/>
+    <sheet name="16__690bde78-8180-3e" sheetId="10" r:id="rId10"/>
+    <sheet name="17__14ab6223-1d71-31" sheetId="11" r:id="rId11"/>
+    <sheet name="18__a129ee86-9aee-3d" sheetId="12" r:id="rId12"/>
+    <sheet name="20__69680d68-0499-3b" sheetId="13" r:id="rId13"/>
+    <sheet name="21__e5adf9da-1ce8-3e" sheetId="14" r:id="rId14"/>
+    <sheet name="22__f55109bd-d498-3d" sheetId="15" r:id="rId15"/>
+    <sheet name="23__f55109bd-d498-3d" sheetId="16" r:id="rId16"/>
+    <sheet name="24__f55109bd-d498-3d" sheetId="17" r:id="rId17"/>
+    <sheet name="25__6ad081c9-6281-3b" sheetId="18" r:id="rId18"/>
+    <sheet name="26__7fdc5704-8f0c-37" sheetId="19" r:id="rId19"/>
+    <sheet name="27__56aa5dbe-5af6-3a" sheetId="20" r:id="rId20"/>
+    <sheet name="4__a43afe4a-0070-3dd" sheetId="21" r:id="rId21"/>
+    <sheet name="6__959cff20-072d-31e" sheetId="22" r:id="rId22"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="278">
   <si>
     <t>line_item_0</t>
   </si>
@@ -82,9 +85,6 @@
     <t>Consolidated</t>
   </si>
   <si>
-    <t>2020</t>
-  </si>
-  <si>
     <t>header_col_2</t>
   </si>
   <si>
@@ -403,6 +403,12 @@
     <t>861683</t>
   </si>
   <si>
+    <t>Goodwill - on consolidation</t>
+  </si>
+  <si>
+    <t>1627273</t>
+  </si>
+  <si>
     <t>Deferred tax asset comprises temporary differences attributable to:</t>
   </si>
   <si>
@@ -665,6 +671,21 @@
   </si>
   <si>
     <t>3656585</t>
+  </si>
+  <si>
+    <t>Contract liabilities - revenue received in advance</t>
+  </si>
+  <si>
+    <t>1784939</t>
+  </si>
+  <si>
+    <t>831867</t>
+  </si>
+  <si>
+    <t>Borrowings</t>
+  </si>
+  <si>
+    <t>4500000</t>
   </si>
   <si>
     <t>Hire purchase liabilities Less: unexpired interest</t>
@@ -1244,8 +1265,8 @@
       <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
-        <v>13</v>
+      <c r="F2">
+        <v>2022</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1261,8 +1282,8 @@
       <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
-        <v>13</v>
+      <c r="F3">
+        <v>2022</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1275,8 +1296,8 @@
       <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
-        <v>13</v>
+      <c r="F4">
+        <v>2022</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1292,8 +1313,8 @@
       <c r="E5" t="s">
         <v>15</v>
       </c>
-      <c r="F5" t="s">
-        <v>16</v>
+      <c r="F5">
+        <v>2020</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1309,8 +1330,8 @@
       <c r="E6" t="s">
         <v>15</v>
       </c>
-      <c r="F6" t="s">
-        <v>16</v>
+      <c r="F6">
+        <v>2020</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1323,8 +1344,8 @@
       <c r="E7" t="s">
         <v>15</v>
       </c>
-      <c r="F7" t="s">
-        <v>16</v>
+      <c r="F7">
+        <v>2020</v>
       </c>
     </row>
   </sheetData>
@@ -1333,6 +1354,901 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>139</v>
+      </c>
+      <c r="B19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" t="s">
+        <v>155</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" t="s">
+        <v>153</v>
+      </c>
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>124</v>
+      </c>
+      <c r="B21" t="s">
+        <v>124</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" t="s">
+        <v>156</v>
+      </c>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" t="s">
+        <v>157</v>
+      </c>
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" t="s">
+        <v>158</v>
+      </c>
+      <c r="D24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" t="s">
+        <v>159</v>
+      </c>
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>129</v>
+      </c>
+      <c r="B26" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" t="s">
+        <v>160</v>
+      </c>
+      <c r="D26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>130</v>
+      </c>
+      <c r="B27" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" t="s">
+        <v>161</v>
+      </c>
+      <c r="D27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>131</v>
+      </c>
+      <c r="B28" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" t="s">
+        <v>162</v>
+      </c>
+      <c r="D28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" t="s">
+        <v>163</v>
+      </c>
+      <c r="D29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" t="s">
+        <v>164</v>
+      </c>
+      <c r="D30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" t="s">
+        <v>165</v>
+      </c>
+      <c r="D31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>133</v>
+      </c>
+      <c r="B32" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" t="s">
+        <v>166</v>
+      </c>
+      <c r="D32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>134</v>
+      </c>
+      <c r="B33" t="s">
+        <v>124</v>
+      </c>
+      <c r="C33" t="s">
+        <v>167</v>
+      </c>
+      <c r="D33" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>135</v>
+      </c>
+      <c r="B34" t="s">
+        <v>124</v>
+      </c>
+      <c r="C34" t="s">
+        <v>168</v>
+      </c>
+      <c r="D34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" t="s">
+        <v>124</v>
+      </c>
+      <c r="C35" t="s">
+        <v>154</v>
+      </c>
+      <c r="D35" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>137</v>
+      </c>
+      <c r="B36" t="s">
+        <v>137</v>
+      </c>
+      <c r="D36" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>138</v>
+      </c>
+      <c r="B37" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" t="s">
+        <v>169</v>
+      </c>
+      <c r="D37" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>139</v>
+      </c>
+      <c r="B38" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38" t="s">
+        <v>170</v>
+      </c>
+      <c r="D38" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>140</v>
+      </c>
+      <c r="B39" t="s">
+        <v>137</v>
+      </c>
+      <c r="C39" t="s">
+        <v>154</v>
+      </c>
+      <c r="D39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39">
+        <v>2021</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1350,7 +2266,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G17"/>
   <sheetViews>
@@ -1375,7 +2291,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -1383,13 +2299,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -1403,13 +2319,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -1423,13 +2339,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -1443,13 +2359,13 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -1463,13 +2379,13 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -1483,13 +2399,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -1503,13 +2419,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -1523,10 +2439,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="C9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -1540,16 +2456,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
@@ -1560,16 +2476,16 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
         <v>15</v>
@@ -1580,16 +2496,16 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C12" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" t="s">
         <v>15</v>
@@ -1600,16 +2516,16 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C13" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" t="s">
         <v>15</v>
@@ -1620,16 +2536,16 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C14" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s">
         <v>15</v>
@@ -1640,13 +2556,13 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
@@ -1657,16 +2573,16 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C16" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F16" t="s">
         <v>15</v>
@@ -1677,13 +2593,13 @@
     </row>
     <row r="17" spans="3:7">
       <c r="C17" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F17" t="s">
         <v>15</v>
@@ -1697,7 +2613,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G9"/>
   <sheetViews>
@@ -1722,7 +2638,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -1730,13 +2646,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -1750,13 +2666,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -1770,13 +2686,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -1790,10 +2706,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="C5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -1807,16 +2723,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
@@ -1827,16 +2743,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
@@ -1847,16 +2763,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
         <v>15</v>
@@ -1867,13 +2783,13 @@
     </row>
     <row r="9" spans="1:7">
       <c r="C9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
         <v>15</v>
@@ -1887,7 +2803,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -1912,7 +2828,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -1920,13 +2836,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -1940,13 +2856,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -1960,10 +2876,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="C4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -1977,16 +2893,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
         <v>15</v>
@@ -1997,16 +2913,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
@@ -2017,13 +2933,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="C7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
@@ -2037,7 +2953,159 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <v>2020</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <v>2021</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G19"/>
   <sheetViews>
@@ -2062,7 +3130,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -2070,13 +3138,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C2" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -2090,13 +3158,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C3" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -2110,10 +3178,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="C4" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -2127,13 +3195,13 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B5" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -2147,13 +3215,13 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="B6" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -2167,16 +3235,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -2190,16 +3258,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B8" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C8" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -2213,16 +3281,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B9" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C9" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -2236,13 +3304,13 @@
     </row>
     <row r="10" spans="1:7">
       <c r="B10" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C10" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
@@ -2256,16 +3324,16 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C11" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
         <v>15</v>
@@ -2276,16 +3344,16 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C12" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" t="s">
         <v>15</v>
@@ -2296,13 +3364,13 @@
     </row>
     <row r="13" spans="1:7">
       <c r="C13" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" t="s">
         <v>15</v>
@@ -2313,16 +3381,16 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B14" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s">
         <v>15</v>
@@ -2333,16 +3401,16 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="B15" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
@@ -2353,16 +3421,16 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B16" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F16" t="s">
         <v>15</v>
@@ -2373,16 +3441,16 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B17" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F17" t="s">
         <v>15</v>
@@ -2393,16 +3461,16 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B18" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F18" t="s">
         <v>15</v>
@@ -2413,13 +3481,13 @@
     </row>
     <row r="19" spans="1:7">
       <c r="B19" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F19" t="s">
         <v>15</v>
@@ -2433,7 +3501,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -2463,10 +3531,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C2" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -2480,7 +3548,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -2500,7 +3568,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -2525,7 +3593,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -2533,13 +3601,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C2" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D2" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -2553,16 +3621,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C3" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D3" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
@@ -2573,13 +3641,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C4" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -2593,13 +3661,13 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C5">
         <v>5014754</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>20</v>
@@ -2609,827 +3677,6 @@
       </c>
       <c r="G5">
         <v>1970</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C3" t="s">
-        <v>233</v>
-      </c>
-      <c r="E3" t="s">
-        <v>236</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>234</v>
-      </c>
-      <c r="B4" t="s">
-        <v>234</v>
-      </c>
-      <c r="C4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E4" t="s">
-        <v>237</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>235</v>
-      </c>
-      <c r="B5" t="s">
-        <v>235</v>
-      </c>
-      <c r="C5" t="s">
-        <v>235</v>
-      </c>
-      <c r="E5" t="s">
-        <v>238</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>233</v>
-      </c>
-      <c r="B7" t="s">
-        <v>233</v>
-      </c>
-      <c r="C7" t="s">
-        <v>233</v>
-      </c>
-      <c r="E7" t="s">
-        <v>239</v>
-      </c>
-      <c r="F7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>234</v>
-      </c>
-      <c r="B8" t="s">
-        <v>234</v>
-      </c>
-      <c r="C8" t="s">
-        <v>234</v>
-      </c>
-      <c r="E8" t="s">
-        <v>240</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>235</v>
-      </c>
-      <c r="B9" t="s">
-        <v>235</v>
-      </c>
-      <c r="C9" t="s">
-        <v>235</v>
-      </c>
-      <c r="E9" t="s">
-        <v>236</v>
-      </c>
-      <c r="F9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9">
-        <v>2021</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>242</v>
-      </c>
-      <c r="C3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>243</v>
-      </c>
-      <c r="C4" t="s">
-        <v>246</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>241</v>
-      </c>
-      <c r="C5" t="s">
-        <v>247</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>242</v>
-      </c>
-      <c r="C6" t="s">
-        <v>248</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>243</v>
-      </c>
-      <c r="C7" t="s">
-        <v>249</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7">
-        <v>2021</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C3" t="s">
-        <v>261</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C4" t="s">
-        <v>262</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>253</v>
-      </c>
-      <c r="B5" t="s">
-        <v>253</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>254</v>
-      </c>
-      <c r="B6" t="s">
-        <v>253</v>
-      </c>
-      <c r="C6" t="s">
-        <v>261</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>255</v>
-      </c>
-      <c r="B7" t="s">
-        <v>255</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>256</v>
-      </c>
-      <c r="B8" t="s">
-        <v>255</v>
-      </c>
-      <c r="C8" t="s">
-        <v>263</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>257</v>
-      </c>
-      <c r="B9" t="s">
-        <v>255</v>
-      </c>
-      <c r="C9" t="s">
-        <v>264</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>258</v>
-      </c>
-      <c r="B10" t="s">
-        <v>255</v>
-      </c>
-      <c r="C10" t="s">
-        <v>265</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>259</v>
-      </c>
-      <c r="B11" t="s">
-        <v>255</v>
-      </c>
-      <c r="C11" t="s">
-        <v>262</v>
-      </c>
-      <c r="D11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>250</v>
-      </c>
-      <c r="C12" t="s">
-        <v>266</v>
-      </c>
-      <c r="D12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>251</v>
-      </c>
-      <c r="C13" t="s">
-        <v>267</v>
-      </c>
-      <c r="D13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>252</v>
-      </c>
-      <c r="C14" t="s">
-        <v>268</v>
-      </c>
-      <c r="D14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>253</v>
-      </c>
-      <c r="B15" t="s">
-        <v>253</v>
-      </c>
-      <c r="D15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>254</v>
-      </c>
-      <c r="B16" t="s">
-        <v>253</v>
-      </c>
-      <c r="C16" t="s">
-        <v>267</v>
-      </c>
-      <c r="D16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>255</v>
-      </c>
-      <c r="B17" t="s">
-        <v>255</v>
-      </c>
-      <c r="D17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>256</v>
-      </c>
-      <c r="B18" t="s">
-        <v>255</v>
-      </c>
-      <c r="C18" t="s">
-        <v>269</v>
-      </c>
-      <c r="D18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>257</v>
-      </c>
-      <c r="B19" t="s">
-        <v>255</v>
-      </c>
-      <c r="C19" t="s">
-        <v>270</v>
-      </c>
-      <c r="D19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>258</v>
-      </c>
-      <c r="B20" t="s">
-        <v>255</v>
-      </c>
-      <c r="C20" t="s">
-        <v>271</v>
-      </c>
-      <c r="D20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>259</v>
-      </c>
-      <c r="B21" t="s">
-        <v>255</v>
-      </c>
-      <c r="C21" t="s">
-        <v>268</v>
-      </c>
-      <c r="D21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21">
-        <v>2021</v>
       </c>
     </row>
   </sheetData>
@@ -3449,6 +3696,827 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C4" t="s">
+        <v>240</v>
+      </c>
+      <c r="E4" t="s">
+        <v>243</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E5" t="s">
+        <v>244</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C7" t="s">
+        <v>239</v>
+      </c>
+      <c r="E7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E8" t="s">
+        <v>246</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>241</v>
+      </c>
+      <c r="B9" t="s">
+        <v>241</v>
+      </c>
+      <c r="C9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E9" t="s">
+        <v>242</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9">
+        <v>2021</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7">
+        <v>2021</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B5" t="s">
+        <v>259</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>260</v>
+      </c>
+      <c r="B6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C6" t="s">
+        <v>267</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>261</v>
+      </c>
+      <c r="B7" t="s">
+        <v>261</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C8" t="s">
+        <v>269</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>263</v>
+      </c>
+      <c r="B9" t="s">
+        <v>261</v>
+      </c>
+      <c r="C9" t="s">
+        <v>270</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>264</v>
+      </c>
+      <c r="B10" t="s">
+        <v>261</v>
+      </c>
+      <c r="C10" t="s">
+        <v>271</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>265</v>
+      </c>
+      <c r="B11" t="s">
+        <v>261</v>
+      </c>
+      <c r="C11" t="s">
+        <v>268</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>256</v>
+      </c>
+      <c r="C12" t="s">
+        <v>272</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>257</v>
+      </c>
+      <c r="C13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>258</v>
+      </c>
+      <c r="C14" t="s">
+        <v>274</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>259</v>
+      </c>
+      <c r="B15" t="s">
+        <v>259</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>260</v>
+      </c>
+      <c r="B16" t="s">
+        <v>259</v>
+      </c>
+      <c r="C16" t="s">
+        <v>273</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>261</v>
+      </c>
+      <c r="B17" t="s">
+        <v>261</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>262</v>
+      </c>
+      <c r="B18" t="s">
+        <v>261</v>
+      </c>
+      <c r="C18" t="s">
+        <v>275</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>263</v>
+      </c>
+      <c r="B19" t="s">
+        <v>261</v>
+      </c>
+      <c r="C19" t="s">
+        <v>276</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>264</v>
+      </c>
+      <c r="B20" t="s">
+        <v>261</v>
+      </c>
+      <c r="C20" t="s">
+        <v>277</v>
+      </c>
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>265</v>
+      </c>
+      <c r="B21" t="s">
+        <v>261</v>
+      </c>
+      <c r="C21" t="s">
+        <v>274</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21">
+        <v>2021</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G9"/>
@@ -3474,7 +4542,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -3482,13 +4550,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -3502,13 +4570,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -3522,13 +4590,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -3542,10 +4610,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="C5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -3559,16 +4627,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
@@ -3579,16 +4647,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
@@ -3599,16 +4667,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
         <v>15</v>
@@ -3619,13 +4687,13 @@
     </row>
     <row r="9" spans="1:7">
       <c r="C9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
         <v>15</v>
@@ -3698,10 +4766,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -3715,10 +4783,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -3732,10 +4800,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -3749,7 +4817,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="C6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -3774,7 +4842,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8">
         <v>504602</v>
@@ -3791,7 +4859,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9">
         <v>64026</v>
@@ -3808,7 +4876,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10">
         <v>425736</v>
@@ -3867,10 +4935,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
@@ -3884,134 +4952,146 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" t="s">
         <v>84</v>
       </c>
-      <c r="G2" t="s">
-        <v>85</v>
+      <c r="H2">
+        <v>2022</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" t="s">
         <v>84</v>
       </c>
-      <c r="G3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H3" t="s">
-        <v>30</v>
+      <c r="H3">
+        <v>2021</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" t="s">
         <v>84</v>
       </c>
-      <c r="G4" t="s">
-        <v>85</v>
+      <c r="H4">
+        <v>2022</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" t="s">
         <v>84</v>
       </c>
-      <c r="G5" t="s">
-        <v>85</v>
+      <c r="H5">
+        <v>2022</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
         <v>84</v>
       </c>
-      <c r="G6" t="s">
-        <v>85</v>
+      <c r="H6">
+        <v>2022</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
         <v>84</v>
       </c>
-      <c r="G7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H7" t="s">
-        <v>13</v>
+      <c r="H7">
+        <v>2022</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4022,134 +5102,146 @@
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" t="s">
         <v>84</v>
       </c>
-      <c r="G8" t="s">
-        <v>85</v>
+      <c r="H8">
+        <v>2022</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" t="s">
         <v>84</v>
       </c>
-      <c r="G9" t="s">
-        <v>85</v>
-      </c>
-      <c r="H9" t="s">
-        <v>30</v>
+      <c r="H9">
+        <v>2021</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F10" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" t="s">
         <v>84</v>
       </c>
-      <c r="G10" t="s">
-        <v>85</v>
+      <c r="H10">
+        <v>2022</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" t="s">
         <v>84</v>
       </c>
-      <c r="G11" t="s">
-        <v>85</v>
+      <c r="H11">
+        <v>2022</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" t="s">
         <v>84</v>
       </c>
-      <c r="G12" t="s">
-        <v>85</v>
+      <c r="H12">
+        <v>2022</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" t="s">
         <v>84</v>
       </c>
-      <c r="G13" t="s">
-        <v>85</v>
-      </c>
-      <c r="H13" t="s">
-        <v>13</v>
+      <c r="H13">
+        <v>2022</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -4160,134 +5252,146 @@
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F14" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" t="s">
         <v>84</v>
       </c>
-      <c r="G14" t="s">
-        <v>85</v>
+      <c r="H14">
+        <v>2022</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F15" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" t="s">
         <v>84</v>
       </c>
-      <c r="G15" t="s">
-        <v>85</v>
-      </c>
-      <c r="H15" t="s">
-        <v>30</v>
+      <c r="H15">
+        <v>2021</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" t="s">
         <v>84</v>
       </c>
-      <c r="G16" t="s">
-        <v>85</v>
+      <c r="H16">
+        <v>2022</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F17" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" t="s">
         <v>84</v>
       </c>
-      <c r="G17" t="s">
-        <v>85</v>
+      <c r="H17">
+        <v>2022</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F18" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" t="s">
         <v>84</v>
       </c>
-      <c r="G18" t="s">
-        <v>85</v>
+      <c r="H18">
+        <v>2022</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F19" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" t="s">
         <v>84</v>
       </c>
-      <c r="G19" t="s">
-        <v>85</v>
-      </c>
-      <c r="H19" t="s">
-        <v>13</v>
+      <c r="H19">
+        <v>2022</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -4298,137 +5402,149 @@
         <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F20" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" t="s">
         <v>84</v>
       </c>
-      <c r="G20" t="s">
-        <v>85</v>
+      <c r="H20">
+        <v>2022</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G21" t="s">
         <v>84</v>
       </c>
-      <c r="G21" t="s">
-        <v>85</v>
-      </c>
-      <c r="H21" t="s">
-        <v>30</v>
+      <c r="H21">
+        <v>2021</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F22" t="s">
+        <v>83</v>
+      </c>
+      <c r="G22" t="s">
         <v>84</v>
       </c>
-      <c r="G22" t="s">
-        <v>85</v>
+      <c r="H22">
+        <v>2022</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F23" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" t="s">
         <v>84</v>
       </c>
-      <c r="G23" t="s">
-        <v>85</v>
+      <c r="H23">
+        <v>2022</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
         <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F24" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" t="s">
         <v>84</v>
       </c>
-      <c r="G24" t="s">
-        <v>85</v>
+      <c r="H24">
+        <v>2022</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F25" t="s">
+        <v>83</v>
+      </c>
+      <c r="G25" t="s">
         <v>84</v>
       </c>
-      <c r="G25" t="s">
-        <v>85</v>
-      </c>
-      <c r="H25" t="s">
-        <v>13</v>
+      <c r="H25">
+        <v>2022</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -4439,134 +5555,146 @@
         <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F26" t="s">
+        <v>83</v>
+      </c>
+      <c r="G26" t="s">
         <v>84</v>
       </c>
-      <c r="G26" t="s">
-        <v>85</v>
+      <c r="H26">
+        <v>2022</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
         <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F27" t="s">
+        <v>83</v>
+      </c>
+      <c r="G27" t="s">
         <v>84</v>
       </c>
-      <c r="G27" t="s">
-        <v>85</v>
-      </c>
-      <c r="H27" t="s">
-        <v>30</v>
+      <c r="H27">
+        <v>2021</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
         <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F28" t="s">
+        <v>83</v>
+      </c>
+      <c r="G28" t="s">
         <v>84</v>
       </c>
-      <c r="G28" t="s">
-        <v>85</v>
+      <c r="H28">
+        <v>2022</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
         <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F29" t="s">
+        <v>83</v>
+      </c>
+      <c r="G29" t="s">
         <v>84</v>
       </c>
-      <c r="G29" t="s">
-        <v>85</v>
+      <c r="H29">
+        <v>2022</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
         <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F30" t="s">
+        <v>83</v>
+      </c>
+      <c r="G30" t="s">
         <v>84</v>
       </c>
-      <c r="G30" t="s">
-        <v>85</v>
+      <c r="H30">
+        <v>2022</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B31" t="s">
         <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F31" t="s">
+        <v>83</v>
+      </c>
+      <c r="G31" t="s">
         <v>84</v>
       </c>
-      <c r="G31" t="s">
-        <v>85</v>
-      </c>
-      <c r="H31" t="s">
-        <v>13</v>
+      <c r="H31">
+        <v>2022</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -4577,131 +5705,143 @@
         <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E32" t="s">
+        <v>82</v>
+      </c>
+      <c r="F32" t="s">
         <v>83</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>84</v>
       </c>
-      <c r="G32" t="s">
-        <v>85</v>
+      <c r="H32">
+        <v>2022</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B33" t="s">
         <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E33" t="s">
+        <v>82</v>
+      </c>
+      <c r="F33" t="s">
         <v>83</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>84</v>
       </c>
-      <c r="G33" t="s">
-        <v>85</v>
-      </c>
-      <c r="H33" t="s">
-        <v>30</v>
+      <c r="H33">
+        <v>2021</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B34" t="s">
         <v>15</v>
       </c>
       <c r="D34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E34" t="s">
+        <v>82</v>
+      </c>
+      <c r="F34" t="s">
         <v>83</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>84</v>
       </c>
-      <c r="G34" t="s">
-        <v>85</v>
+      <c r="H34">
+        <v>2022</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B35" t="s">
         <v>15</v>
       </c>
       <c r="D35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E35" t="s">
+        <v>82</v>
+      </c>
+      <c r="F35" t="s">
         <v>83</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>84</v>
       </c>
-      <c r="G35" t="s">
-        <v>85</v>
+      <c r="H35">
+        <v>2022</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B36" t="s">
         <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E36" t="s">
+        <v>82</v>
+      </c>
+      <c r="F36" t="s">
         <v>83</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>84</v>
       </c>
-      <c r="G36" t="s">
-        <v>85</v>
+      <c r="H36">
+        <v>2022</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37" t="s">
         <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E37" t="s">
+        <v>82</v>
+      </c>
+      <c r="F37" t="s">
         <v>83</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>84</v>
       </c>
-      <c r="G37" t="s">
-        <v>85</v>
-      </c>
-      <c r="H37" t="s">
-        <v>13</v>
+      <c r="H37">
+        <v>2022</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -4712,137 +5852,149 @@
         <v>15</v>
       </c>
       <c r="D38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E38" t="s">
+        <v>82</v>
+      </c>
+      <c r="F38" t="s">
         <v>83</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>84</v>
       </c>
-      <c r="G38" t="s">
-        <v>85</v>
+      <c r="H38">
+        <v>2022</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E39" t="s">
+        <v>82</v>
+      </c>
+      <c r="F39" t="s">
         <v>83</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>84</v>
       </c>
-      <c r="G39" t="s">
-        <v>85</v>
-      </c>
-      <c r="H39" t="s">
-        <v>30</v>
+      <c r="H39">
+        <v>2021</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>15</v>
       </c>
       <c r="C40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E40" t="s">
+        <v>82</v>
+      </c>
+      <c r="F40" t="s">
         <v>83</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>84</v>
       </c>
-      <c r="G40" t="s">
-        <v>85</v>
+      <c r="H40">
+        <v>2022</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E41" t="s">
+        <v>82</v>
+      </c>
+      <c r="F41" t="s">
         <v>83</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>84</v>
       </c>
-      <c r="G41" t="s">
-        <v>85</v>
+      <c r="H41">
+        <v>2022</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>84</v>
       </c>
-      <c r="G42" t="s">
-        <v>85</v>
+      <c r="H42">
+        <v>2022</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>15</v>
       </c>
       <c r="C43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" t="s">
         <v>83</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>84</v>
       </c>
-      <c r="G43" t="s">
-        <v>85</v>
-      </c>
-      <c r="H43" t="s">
-        <v>13</v>
+      <c r="H43">
+        <v>2022</v>
       </c>
     </row>
   </sheetData>
@@ -4891,10 +6043,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -4908,10 +6060,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -4925,7 +6077,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="C5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -4939,10 +6091,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -4956,10 +6108,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -4973,7 +6125,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="C8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -4987,10 +6139,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
@@ -5004,10 +6156,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
@@ -5021,7 +6173,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="C11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
@@ -5035,10 +6187,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -5052,10 +6204,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
@@ -5069,7 +6221,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="C14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
@@ -5083,10 +6235,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
@@ -5100,10 +6252,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D16" t="s">
         <v>13</v>
@@ -5117,7 +6269,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="C17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D17" t="s">
         <v>13</v>
@@ -5131,10 +6283,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
@@ -5148,10 +6300,10 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D19" t="s">
         <v>13</v>
@@ -5165,7 +6317,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="C20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D20" t="s">
         <v>13</v>
@@ -5179,7 +6331,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="C21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D21" t="s">
         <v>13</v>
@@ -5193,7 +6345,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="D22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E22" t="s">
         <v>15</v>
@@ -5204,13 +6356,13 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E23" t="s">
         <v>15</v>
@@ -5221,13 +6373,13 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E24" t="s">
         <v>15</v>
@@ -5238,10 +6390,10 @@
     </row>
     <row r="25" spans="1:6">
       <c r="C25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E25" t="s">
         <v>15</v>
@@ -5252,13 +6404,13 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E26" t="s">
         <v>15</v>
@@ -5269,13 +6421,13 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E27" t="s">
         <v>15</v>
@@ -5286,10 +6438,10 @@
     </row>
     <row r="28" spans="1:6">
       <c r="C28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E28" t="s">
         <v>15</v>
@@ -5300,13 +6452,13 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E29" t="s">
         <v>15</v>
@@ -5317,13 +6469,13 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E30" t="s">
         <v>15</v>
@@ -5334,10 +6486,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="C31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E31" t="s">
         <v>15</v>
@@ -5348,13 +6500,13 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E32" t="s">
         <v>15</v>
@@ -5365,13 +6517,13 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E33" t="s">
         <v>15</v>
@@ -5382,10 +6534,10 @@
     </row>
     <row r="34" spans="1:6">
       <c r="C34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E34" t="s">
         <v>15</v>
@@ -5396,13 +6548,13 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E35" t="s">
         <v>15</v>
@@ -5413,13 +6565,13 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E36" t="s">
         <v>15</v>
@@ -5430,10 +6582,10 @@
     </row>
     <row r="37" spans="1:6">
       <c r="C37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E37" t="s">
         <v>15</v>
@@ -5444,13 +6596,13 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E38" t="s">
         <v>15</v>
@@ -5461,13 +6613,13 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E39" t="s">
         <v>15</v>
@@ -5478,10 +6630,10 @@
     </row>
     <row r="40" spans="1:6">
       <c r="C40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E40" t="s">
         <v>15</v>
@@ -5492,10 +6644,10 @@
     </row>
     <row r="41" spans="1:6">
       <c r="C41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E41" t="s">
         <v>15</v>
@@ -5544,33 +6696,33 @@
       <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
-        <v>13</v>
+      <c r="F2">
+        <v>2022</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" t="s">
         <v>116</v>
       </c>
-      <c r="C3" t="s">
-        <v>117</v>
-      </c>
       <c r="D3" t="s">
         <v>13</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
-        <v>13</v>
+      <c r="F3">
+        <v>2022</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -5578,13 +6730,13 @@
       <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
-        <v>13</v>
+      <c r="F4">
+        <v>2022</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="C5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -5592,8 +6744,8 @@
       <c r="E5" t="s">
         <v>15</v>
       </c>
-      <c r="F5" t="s">
-        <v>13</v>
+      <c r="F5">
+        <v>2022</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5603,16 +6755,16 @@
       <c r="E6" t="s">
         <v>15</v>
       </c>
-      <c r="F6" t="s">
-        <v>16</v>
+      <c r="F6">
+        <v>2020</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -5620,16 +6772,16 @@
       <c r="E7" t="s">
         <v>15</v>
       </c>
-      <c r="F7" t="s">
-        <v>16</v>
+      <c r="F7">
+        <v>2020</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -5637,13 +6789,13 @@
       <c r="E8" t="s">
         <v>15</v>
       </c>
-      <c r="F8" t="s">
-        <v>16</v>
+      <c r="F8">
+        <v>2020</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="C9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -5651,8 +6803,8 @@
       <c r="E9" t="s">
         <v>15</v>
       </c>
-      <c r="F9" t="s">
-        <v>16</v>
+      <c r="F9">
+        <v>2020</v>
       </c>
     </row>
   </sheetData>
@@ -5662,7 +6814,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5685,7 +6837,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -5693,13 +6845,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" t="s">
         <v>123</v>
       </c>
-      <c r="B2" t="s">
-        <v>123</v>
-      </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -5713,840 +6865,21 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" t="s">
         <v>123</v>
       </c>
-      <c r="C3" t="s">
-        <v>140</v>
-      </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
       </c>
       <c r="G3">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C6" t="s">
-        <v>143</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>128</v>
-      </c>
-      <c r="B7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C7" t="s">
-        <v>144</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>130</v>
-      </c>
-      <c r="B9" t="s">
-        <v>123</v>
-      </c>
-      <c r="C9" t="s">
-        <v>146</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>123</v>
-      </c>
-      <c r="C10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C11" t="s">
-        <v>148</v>
-      </c>
-      <c r="D11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>131</v>
-      </c>
-      <c r="B12" t="s">
-        <v>123</v>
-      </c>
-      <c r="C12" t="s">
-        <v>149</v>
-      </c>
-      <c r="D12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>132</v>
-      </c>
-      <c r="B13" t="s">
-        <v>123</v>
-      </c>
-      <c r="C13" t="s">
-        <v>150</v>
-      </c>
-      <c r="D13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>133</v>
-      </c>
-      <c r="B14" t="s">
-        <v>123</v>
-      </c>
-      <c r="C14" t="s">
-        <v>151</v>
-      </c>
-      <c r="D14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>134</v>
-      </c>
-      <c r="B15" t="s">
-        <v>123</v>
-      </c>
-      <c r="D15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>135</v>
-      </c>
-      <c r="B16" t="s">
-        <v>123</v>
-      </c>
-      <c r="C16" t="s">
-        <v>152</v>
-      </c>
-      <c r="D16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>136</v>
-      </c>
-      <c r="B17" t="s">
-        <v>136</v>
-      </c>
-      <c r="D17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>137</v>
-      </c>
-      <c r="B18" t="s">
-        <v>136</v>
-      </c>
-      <c r="C18" t="s">
-        <v>153</v>
-      </c>
-      <c r="D18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>138</v>
-      </c>
-      <c r="B19" t="s">
-        <v>136</v>
-      </c>
-      <c r="C19" t="s">
-        <v>154</v>
-      </c>
-      <c r="D19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>139</v>
-      </c>
-      <c r="B20" t="s">
-        <v>136</v>
-      </c>
-      <c r="C20" t="s">
-        <v>152</v>
-      </c>
-      <c r="D20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>123</v>
-      </c>
-      <c r="B21" t="s">
-        <v>123</v>
-      </c>
-      <c r="D21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>124</v>
-      </c>
-      <c r="B22" t="s">
-        <v>123</v>
-      </c>
-      <c r="C22" t="s">
-        <v>155</v>
-      </c>
-      <c r="D22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>125</v>
-      </c>
-      <c r="B23" t="s">
-        <v>123</v>
-      </c>
-      <c r="C23" t="s">
-        <v>156</v>
-      </c>
-      <c r="D23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
-        <v>126</v>
-      </c>
-      <c r="B24" t="s">
-        <v>123</v>
-      </c>
-      <c r="C24" t="s">
-        <v>157</v>
-      </c>
-      <c r="D24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
-        <v>127</v>
-      </c>
-      <c r="B25" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" t="s">
-        <v>158</v>
-      </c>
-      <c r="D25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" t="s">
-        <v>128</v>
-      </c>
-      <c r="B26" t="s">
-        <v>123</v>
-      </c>
-      <c r="C26" t="s">
-        <v>159</v>
-      </c>
-      <c r="D26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" t="s">
-        <v>30</v>
-      </c>
-      <c r="F26" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" t="s">
-        <v>129</v>
-      </c>
-      <c r="B27" t="s">
-        <v>123</v>
-      </c>
-      <c r="C27" t="s">
-        <v>160</v>
-      </c>
-      <c r="D27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" t="s">
-        <v>30</v>
-      </c>
-      <c r="F27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" t="s">
-        <v>130</v>
-      </c>
-      <c r="B28" t="s">
-        <v>123</v>
-      </c>
-      <c r="C28" t="s">
-        <v>161</v>
-      </c>
-      <c r="D28" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" t="s">
-        <v>123</v>
-      </c>
-      <c r="C29" t="s">
-        <v>162</v>
-      </c>
-      <c r="D29" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" t="s">
-        <v>30</v>
-      </c>
-      <c r="F29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" t="s">
-        <v>123</v>
-      </c>
-      <c r="C30" t="s">
-        <v>163</v>
-      </c>
-      <c r="D30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" t="s">
-        <v>30</v>
-      </c>
-      <c r="F30" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" t="s">
-        <v>131</v>
-      </c>
-      <c r="B31" t="s">
-        <v>123</v>
-      </c>
-      <c r="C31" t="s">
-        <v>164</v>
-      </c>
-      <c r="D31" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" t="s">
-        <v>30</v>
-      </c>
-      <c r="F31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" t="s">
-        <v>132</v>
-      </c>
-      <c r="B32" t="s">
-        <v>123</v>
-      </c>
-      <c r="C32" t="s">
-        <v>165</v>
-      </c>
-      <c r="D32" t="s">
-        <v>29</v>
-      </c>
-      <c r="E32" t="s">
-        <v>30</v>
-      </c>
-      <c r="F32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" t="s">
-        <v>133</v>
-      </c>
-      <c r="B33" t="s">
-        <v>123</v>
-      </c>
-      <c r="C33" t="s">
-        <v>166</v>
-      </c>
-      <c r="D33" t="s">
-        <v>29</v>
-      </c>
-      <c r="E33" t="s">
-        <v>30</v>
-      </c>
-      <c r="F33" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" t="s">
-        <v>134</v>
-      </c>
-      <c r="B34" t="s">
-        <v>123</v>
-      </c>
-      <c r="C34" t="s">
-        <v>167</v>
-      </c>
-      <c r="D34" t="s">
-        <v>29</v>
-      </c>
-      <c r="E34" t="s">
-        <v>30</v>
-      </c>
-      <c r="F34" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" t="s">
-        <v>135</v>
-      </c>
-      <c r="B35" t="s">
-        <v>123</v>
-      </c>
-      <c r="C35" t="s">
-        <v>153</v>
-      </c>
-      <c r="D35" t="s">
-        <v>29</v>
-      </c>
-      <c r="E35" t="s">
-        <v>30</v>
-      </c>
-      <c r="F35" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" t="s">
-        <v>136</v>
-      </c>
-      <c r="B36" t="s">
-        <v>136</v>
-      </c>
-      <c r="D36" t="s">
-        <v>29</v>
-      </c>
-      <c r="E36" t="s">
-        <v>30</v>
-      </c>
-      <c r="F36" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" t="s">
-        <v>137</v>
-      </c>
-      <c r="B37" t="s">
-        <v>136</v>
-      </c>
-      <c r="C37" t="s">
-        <v>168</v>
-      </c>
-      <c r="D37" t="s">
-        <v>29</v>
-      </c>
-      <c r="E37" t="s">
-        <v>30</v>
-      </c>
-      <c r="F37" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" t="s">
-        <v>138</v>
-      </c>
-      <c r="B38" t="s">
-        <v>136</v>
-      </c>
-      <c r="C38" t="s">
-        <v>169</v>
-      </c>
-      <c r="D38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E38" t="s">
-        <v>30</v>
-      </c>
-      <c r="F38" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" t="s">
-        <v>139</v>
-      </c>
-      <c r="B39" t="s">
-        <v>136</v>
-      </c>
-      <c r="C39" t="s">
-        <v>153</v>
-      </c>
-      <c r="D39" t="s">
-        <v>29</v>
-      </c>
-      <c r="E39" t="s">
-        <v>30</v>
-      </c>
-      <c r="F39" t="s">
-        <v>15</v>
-      </c>
-      <c r="G39">
         <v>2021</v>
       </c>
     </row>
